--- a/CnMedicine/规范数据表-妇科.xlsx
+++ b/CnMedicine/规范数据表-妇科.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13020"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="评分表1" sheetId="1" r:id="rId1"/>
@@ -1540,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3276,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G68" si="0">"编号:" &amp;A5</f>
+        <f t="shared" ref="G5" si="0">"编号:" &amp;A5</f>
         <v>编号:2</v>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>206</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
         <v>206</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
         <v>206</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>206</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
         <v>210</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
         <v>210</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
         <v>210</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
         <v>212</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
         <v>212</v>
